--- a/biology/Histoire de la zoologie et de la botanique/Musée_argentin_des_sciences_naturelles/Musée_argentin_des_sciences_naturelles.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Musée_argentin_des_sciences_naturelles/Musée_argentin_des_sciences_naturelles.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Mus%C3%A9e_argentin_des_sciences_naturelles</t>
+          <t>Musée_argentin_des_sciences_naturelles</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Musée argentin des sciences naturelles (en espagnol, Museo Argentino de Ciencias Naturales Bernardino Rivadavia) est le musée d'histoire naturelle de rang national de l'Argentine. Il est situé à Buenos Aires, la capitale du pays.
 Proposé par Bernardino Rivadavia dès 1812 et ouvert en 1826, le Museo Argentino de Ciencias Naturales Bernardino Rivadavia est le deuxième musée d'histoire naturelle en importance du pays après le musée de La Plata (en).
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Mus%C3%A9e_argentin_des_sciences_naturelles</t>
+          <t>Musée_argentin_des_sciences_naturelles</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,9 +525,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Musée est proposé par Bernardino Rivadavia avant le premier triumvirat de 1812. L'année suivante, le Musée reçoit du matériel par Bartolomé Muñoz[1]. Cependant, les événements de l'époque retardent le projet jusqu'en 1823, au moment où Rivadavia, membre du cabinet du gouverneur Martín Rodríguez, propose de construire un édifice dédié au Musée. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Musée est proposé par Bernardino Rivadavia avant le premier triumvirat de 1812. L'année suivante, le Musée reçoit du matériel par Bartolomé Muñoz. Cependant, les événements de l'époque retardent le projet jusqu'en 1823, au moment où Rivadavia, membre du cabinet du gouverneur Martín Rodríguez, propose de construire un édifice dédié au Musée. 
 Le Musée d'origine ouvre ses portes en 1826. Il est situé dans le quartier Monserrat , dans le centre-ville de Buenos Aires, dans une salle du couvent de Santo Domingo rendue disponible à la suite de l'expulsion de Buenos Aires de l'ordre des Prêcheurs. Rivadavia surveille attentivement la construction de l'institution, la première du genre en Amérique du Sud[réf. souhaitée]. Il engage le botaniste Carlos Ferraris comme premier directeur de l'institution.
 Le Musée ouvre avec une collection composée notamment de quelque 800 animaux et 1 500 minéraux. Rivadavia engage également l'astronome italie Ottaviano Fabrizio Mossotti, qui construit les premiers observatoire astronomique, station météorologique et laboratoire de physique expérimentale de la nation. Il travaillera à l'institution de 1828 à 1835. Les travaux du Musée seront consultés par un nombre grandissant de chercheurs, dont Alexander von Humboldt, qui demandera plusieurs études météorologiques au nom de l'Institut de France.
 L'arrivée au pouvoir du gouverneur Juan Manuel de Rosas mène à la décroissance de l'institution. Grand dévot, Rosas redonne le couvent aux Prêcheurs en octobre 1835, forçant ainsi le Musée à se relocaliser dans des locaux adjacents plus petits. Une bonne partie de l'équipement et des recherches sont perdues lors du déménagement. Ferrari et Mossotti retournent en Italie.
